--- a/画面設計/【画面設計】11_ユーザ管理(お気に入り料理).xlsx
+++ b/画面設計/【画面設計】11_ユーザ管理(お気に入り料理).xlsx
@@ -446,7 +446,7 @@
     <t xml:space="preserve">　　・お気に入り料理なしのラベルを表示する。処理を止める。</t>
   </si>
   <si>
-    <t>2.2 料理詳細リンクをクリック時</t>
+    <t>2.2 行単位の料理画像または料理名リンクをクリック時</t>
   </si>
   <si>
     <t xml:space="preserve">　(1)  対象行.変数.料理IDを渡して、「04_レシピ表示」画面を開く。</t>
@@ -1024,7 +1024,7 @@
     <xdr:ext cx="7696200" cy="6715125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1052,7 +1052,7 @@
     <xdr:ext cx="685800" cy="466725"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31205,7 +31205,7 @@
     <row r="35" ht="18.75" customHeight="1">
       <c r="A35" s="66"/>
       <c r="B35" s="31"/>
-      <c r="C35" s="70" t="s">
+      <c r="C35" s="71" t="s">
         <v>113</v>
       </c>
       <c r="D35" s="31"/>
